--- a/biology/Médecine/Estriol/Estriol.xlsx
+++ b/biology/Médecine/Estriol/Estriol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'estriol ou œstriol (E3) est un des trois principaux œstrogènes produits dans le corps humain. Ce n'est qu'au cours de la grossesse qu'il est produit en quantités significatives vu qu'il est produit par le placenta.
